--- a/admin/components/sample_lead.xlsx
+++ b/admin/components/sample_lead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\UrbanMoney\admin\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0ADDF8-750E-4521-A3F4-6BD5E995B7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998B38CE-1442-4D4E-BE9F-961ACCD90488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,6 +660,9 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>123</v>
+      </c>
       <c r="B2" s="4">
         <v>45253</v>
       </c>
